--- a/R/data/quiz231120.xlsx
+++ b/R/data/quiz231120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB04A33-F594-4444-8BA6-640EA9026F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AA95C6-5B18-A843-B2D7-9B13F24CF299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="623">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1707,6 +1707,200 @@
   </si>
   <si>
     <t>11/25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dltmdxo0123@naver.com</t>
+  </si>
+  <si>
+    <t>이승태</t>
+  </si>
+  <si>
+    <t>05/01</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>11/15</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>06/06</t>
+  </si>
+  <si>
+    <t>wjddmsqjqtk@naver.com</t>
+  </si>
+  <si>
+    <t>신정은</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>sujongchoe8@gmail.com</t>
+  </si>
+  <si>
+    <t>최수종</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>sieun1522@naver.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>jyn10131@naver.com</t>
+  </si>
+  <si>
+    <t>정예나</t>
+  </si>
+  <si>
+    <t>10/13</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>05/03</t>
+  </si>
+  <si>
+    <t>hmuc1smoker@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>서정원</t>
+  </si>
+  <si>
+    <t>ghkwls336@naver.com</t>
+  </si>
+  <si>
+    <t>장다온</t>
+  </si>
+  <si>
+    <t>01/10</t>
+  </si>
+  <si>
+    <t>juh0611@naver.com</t>
+  </si>
+  <si>
+    <t>신주희</t>
+  </si>
+  <si>
+    <t>06/11</t>
+  </si>
+  <si>
+    <t>rkdtmdrn1018@naver.com</t>
+  </si>
+  <si>
+    <t>강승구</t>
+  </si>
+  <si>
+    <t>a40432708@gmail.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>tvkim0122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태빈</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>10/24</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>07/11</t>
+  </si>
+  <si>
+    <t>kdh01270102@gmail.com</t>
+  </si>
+  <si>
+    <t>01/27</t>
+  </si>
+  <si>
+    <t>gusdud0627@naver.com</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>06/27</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>04/01</t>
+  </si>
+  <si>
+    <t>09/04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05/06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1982,11 +2176,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8967,6 +9161,990 @@
         <v>28</v>
       </c>
     </row>
+    <row r="171" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>45253.356668113425</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20202837</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>45253.419695335644</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20172428</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>45253.423215358795</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20171078</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>45253.431167442133</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20196621</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>45253.431749953699</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20192319</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>45253.442730486116</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20221714</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>45253.526140740738</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20234121</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>45253.574902083332</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20222637</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2">
+        <v>45253.575648287035</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20233409</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2">
+        <v>45253.577404722222</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D180" s="1">
+        <v>20233726</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2">
+        <v>45253.592966064811</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D181" s="1">
+        <v>20232303</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="2">
+        <v>45253.616843541662</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D182" s="1">
+        <v>20233847</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="2">
+        <v>45253.623945937499</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D183" s="1">
+        <v>20236300</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>45253.629083009262</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D184" s="1">
+        <v>20217146</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>45253.653557916667</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D185" s="1">
+        <v>20236287</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>45253.675822754631</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="1">
+        <v>20221051</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>45253.700085393517</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" s="1">
+        <v>20232902</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>45253.745537361116</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D188" s="1">
+        <v>20191218</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>45253.758862951392</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D189" s="1">
+        <v>20203314</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>45253.826771932872</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20207091</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>45253.866625162038</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D191" s="1">
+        <v>20183831</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>45253.880584131941</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D192" s="1">
+        <v>20212707</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>45253.884583749998</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D193" s="1">
+        <v>20205246</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>45253.904818090276</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D194" s="1">
+        <v>20233960</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231120.xlsx
+++ b/R/data/quiz231120.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AA95C6-5B18-A843-B2D7-9B13F24CF299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97FD8E9-E1FB-2A45-90ED-BA5A6060418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="660">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1902,6 +1902,117 @@
   <si>
     <t>05/06</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtk0116@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>원태경</t>
+  </si>
+  <si>
+    <t>01/16</t>
+  </si>
+  <si>
+    <t>athboy3@gmail.com</t>
+  </si>
+  <si>
+    <t>안태현</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>01/13</t>
+  </si>
+  <si>
+    <t>dlthfdk2@naver.com</t>
+  </si>
+  <si>
+    <t>이솔아</t>
+  </si>
+  <si>
+    <t>03/29</t>
+  </si>
+  <si>
+    <t>dbswlals0326@naver.com</t>
+  </si>
+  <si>
+    <t>윤지민</t>
+  </si>
+  <si>
+    <t>03/26</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>01/11</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>05/14</t>
+  </si>
+  <si>
+    <t>mimi041221@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중국학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">김미정 </t>
+  </si>
+  <si>
+    <t>kimeunjin829@naver.com</t>
+  </si>
+  <si>
+    <t>김은진</t>
+  </si>
+  <si>
+    <t>06/08</t>
+  </si>
+  <si>
+    <t>suin207846@naver.com</t>
+  </si>
+  <si>
+    <t>안수인</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>02/11</t>
+  </si>
+  <si>
+    <t>jjiwoong0212@gmail.com</t>
+  </si>
+  <si>
+    <t>이지웅</t>
+  </si>
+  <si>
+    <t>02/12</t>
   </si>
 </sst>
 </file>
@@ -2176,11 +2287,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N194"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F195" sqref="F195"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10145,6 +10256,539 @@
         <v>28</v>
       </c>
     </row>
+    <row r="195" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>45253.93783761574</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D195" s="1">
+        <v>20182545</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="2">
+        <v>45253.937952881941</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D196" s="1">
+        <v>20222616</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="2">
+        <v>45253.938675659723</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D197" s="1">
+        <v>20231203</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="2">
+        <v>45253.944715069447</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D198" s="1">
+        <v>20192743</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="2">
+        <v>45253.953576006941</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="1">
+        <v>20235219</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="2">
+        <v>45253.971568182867</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D200" s="1">
+        <v>20202741</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="2">
+        <v>45253.979816701394</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D201" s="1">
+        <v>20171605</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="2">
+        <v>45253.98951856482</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D202" s="1">
+        <v>20202513</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="2">
+        <v>45254.001475138888</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D203" s="1">
+        <v>20231503</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="2">
+        <v>45254.00251741898</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D204" s="1">
+        <v>20202321</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2">
+        <v>45254.051459722221</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="1">
+        <v>20222977</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="2">
+        <v>45254.06573858796</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D206" s="1">
+        <v>20232134</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="2">
+        <v>45254.17870016204</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D207" s="1">
+        <v>20233634</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231120.xlsx
+++ b/R/data/quiz231120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202302/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97FD8E9-E1FB-2A45-90ED-BA5A6060418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D10FE7-179C-0A42-91DC-5D313A7CC0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="737">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2013,6 +2013,243 @@
   </si>
   <si>
     <t>02/12</t>
+  </si>
+  <si>
+    <t>digiphk12@naver.com</t>
+  </si>
+  <si>
+    <t>박현규</t>
+  </si>
+  <si>
+    <t>tkddnjs8070@naver.com</t>
+  </si>
+  <si>
+    <t>05/19</t>
+  </si>
+  <si>
+    <t>cilly03@naver.com</t>
+  </si>
+  <si>
+    <t>이예랑</t>
+  </si>
+  <si>
+    <t>12 31</t>
+  </si>
+  <si>
+    <t>chaeseungwoo99@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>채승우</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>hyu4511@gmail.com</t>
+  </si>
+  <si>
+    <t>유영후</t>
+  </si>
+  <si>
+    <t>kkhe2370@naver.com</t>
+  </si>
+  <si>
+    <t>전혜린</t>
+  </si>
+  <si>
+    <t>b1a46317@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>09/15</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>02/06</t>
+  </si>
+  <si>
+    <t>qodnwnop@naver.com</t>
+  </si>
+  <si>
+    <t>이우주</t>
+  </si>
+  <si>
+    <t>wldodxp@naver.com</t>
+  </si>
+  <si>
+    <t>박지영</t>
+  </si>
+  <si>
+    <t>03/06</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>drmiso526@naver.com</t>
+  </si>
+  <si>
+    <t>김세중</t>
+  </si>
+  <si>
+    <t>05/26</t>
+  </si>
+  <si>
+    <t>yoodj4424@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>유동재</t>
+  </si>
+  <si>
+    <t>04/22</t>
+  </si>
+  <si>
+    <t>h20192607@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김지원</t>
+  </si>
+  <si>
+    <t>04/14</t>
+  </si>
+  <si>
+    <t>pearlzero@naver.com</t>
+  </si>
+  <si>
+    <t>진주영</t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>duswn8911@naver.com</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>08/09</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>02/24</t>
+  </si>
+  <si>
+    <t>rlaekdp1505@naver.com</t>
+  </si>
+  <si>
+    <t>김다예</t>
+  </si>
+  <si>
+    <t>10/30</t>
+  </si>
+  <si>
+    <t>20233824@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>안지영</t>
+  </si>
+  <si>
+    <t>02/04</t>
+  </si>
+  <si>
+    <t>hshs0104746@naver.com</t>
+  </si>
+  <si>
+    <t>최희수</t>
+  </si>
+  <si>
+    <t>12/13</t>
+  </si>
+  <si>
+    <t>jw011400@naver.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>최아린</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>08/24</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>DONGZECHAO</t>
+  </si>
+  <si>
+    <t>정상원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02/25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2287,11 +2524,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N207"/>
+  <dimension ref="A1:N235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10789,6 +11026,1154 @@
         <v>23</v>
       </c>
     </row>
+    <row r="208" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2">
+        <v>45254.396819571761</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D208" s="1">
+        <v>20162617</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="2">
+        <v>45254.410973634258</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D209" s="1">
+        <v>20191536</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2">
+        <v>45254.46461711805</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D210" s="1">
+        <v>20221629</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2">
+        <v>45254.476514745373</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20183845</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="2">
+        <v>45254.476559756949</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D212" s="1">
+        <v>20233417</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="2">
+        <v>45254.529009120371</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D213" s="1">
+        <v>20231060</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="2">
+        <v>45254.54525387731</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D214" s="1">
+        <v>20202638</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="2">
+        <v>45254.565182106482</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="1">
+        <v>20203020</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="2">
+        <v>45254.567333854167</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D216" s="1">
+        <v>20195157</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="2">
+        <v>45254.588836388888</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D217" s="1">
+        <v>20232636</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="2">
+        <v>45254.61864458333</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D218" s="1">
+        <v>20232350</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="2">
+        <v>45254.622048784724</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D219" s="1">
+        <v>20212727</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="2">
+        <v>45254.641005648147</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D220" s="1">
+        <v>20231007</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="2">
+        <v>45254.643265081017</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D221" s="1">
+        <v>20182889</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="2">
+        <v>45254.658276087968</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D222" s="1">
+        <v>20192310</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="2">
+        <v>45254.665188194442</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D223" s="1">
+        <v>20233232</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="2">
+        <v>45254.686009155092</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D224" s="1">
+        <v>20192607</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N224" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="2">
+        <v>45254.724322557871</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D225" s="1">
+        <v>20216289</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="2">
+        <v>45254.729770231483</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D226" s="1">
+        <v>20202742</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="2">
+        <v>45254.755761655091</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="1">
+        <v>20217081</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="2">
+        <v>45254.758105034722</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D228" s="1">
+        <v>20231004</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="2">
+        <v>45254.767378749995</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="1">
+        <v>20222908</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="2">
+        <v>45254.76827940972</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D230" s="1">
+        <v>20233824</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>45254.772268032408</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D231" s="1">
+        <v>20232639</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="2">
+        <v>45254.79985737268</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D232" s="1">
+        <v>20235202</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="2">
+        <v>45254.839041412037</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D233" s="1">
+        <v>20233051</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="2">
+        <v>45254.840535995369</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D234" s="1">
+        <v>20232426</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="2">
+        <v>45254.840908483791</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" s="1">
+        <v>20218001</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231120.xlsx
+++ b/R/data/quiz231120.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E241189-A5B6-9744-8ECC-227C92052D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4DC356-29D9-1C42-B344-88320FB84AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52460" yWindow="1500" windowWidth="39400" windowHeight="21560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50080" yWindow="2040" windowWidth="39400" windowHeight="21560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="1216">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3642,6 +3642,66 @@
   <si>
     <t>01/28</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sarah04113@naver.com</t>
+  </si>
+  <si>
+    <t>박사랑</t>
+  </si>
+  <si>
+    <t>happle0313@naver.com</t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>jeh9599@gmail.com</t>
+  </si>
+  <si>
+    <t>정은혁</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>05/29</t>
+  </si>
+  <si>
+    <t>psm4155@gmail.com</t>
+  </si>
+  <si>
+    <t>박진주</t>
+  </si>
+  <si>
+    <t>abc810852@gmail.com</t>
+  </si>
+  <si>
+    <t>심지환</t>
+  </si>
+  <si>
+    <t>04/17</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>tkdgjs9768@naver.com</t>
+  </si>
+  <si>
+    <t>임상헌</t>
+  </si>
+  <si>
+    <t>07/18</t>
+  </si>
+  <si>
+    <t>skdud5438@naver.com</t>
+  </si>
+  <si>
+    <t>곽나영</t>
   </si>
 </sst>
 </file>
@@ -3918,11 +3978,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N411"/>
+  <dimension ref="A1:N420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F396" sqref="F396"/>
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D422" sqref="D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20784,6 +20844,375 @@
         <v>50</v>
       </c>
     </row>
+    <row r="412" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="2">
+        <v>45257.654862372685</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D412" s="1">
+        <v>20232532</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K412" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L412" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M412" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="2">
+        <v>45257.655706863428</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D413" s="1">
+        <v>20202945</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K413" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L413" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N413" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="2">
+        <v>45257.680095254633</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D414" s="1">
+        <v>20235256</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K414" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M414" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="2">
+        <v>45257.710691747685</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D415" s="1">
+        <v>20232508</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N415" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="2">
+        <v>45257.820758865739</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D416" s="1">
+        <v>20231518</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M416" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="2">
+        <v>45257.823040601856</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D417" s="1">
+        <v>20235201</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N417" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="2">
+        <v>45257.825846967593</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D418" s="1">
+        <v>20215154</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="2">
+        <v>45257.855712303237</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D419" s="1">
+        <v>20212837</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N419" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="2">
+        <v>45257.865212766206</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D420" s="1">
+        <v>20232803</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K420" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M420" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231120.xlsx
+++ b/R/data/quiz231120.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4DC356-29D9-1C42-B344-88320FB84AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535B5346-05F2-A540-B4D2-41C63C132497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50080" yWindow="2040" windowWidth="39400" windowHeight="21560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48440" yWindow="880" windowWidth="39400" windowHeight="21560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5261" uniqueCount="1352">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3702,6 +3702,418 @@
   </si>
   <si>
     <t>곽나영</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>jungjukim0227@gmail.com</t>
+  </si>
+  <si>
+    <t>김정주</t>
+  </si>
+  <si>
+    <t>rkdgodbs7148@naver.com</t>
+  </si>
+  <si>
+    <t>강해윤</t>
+  </si>
+  <si>
+    <t>duaalstj9429@naver.com</t>
+  </si>
+  <si>
+    <t>염민서</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>kmj10456@gmail.com</t>
+  </si>
+  <si>
+    <t>ans1929@naver.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>06/01</t>
+  </si>
+  <si>
+    <t>hkmcosmos1@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스</t>
+  </si>
+  <si>
+    <t>한기민</t>
+  </si>
+  <si>
+    <t>yukuyl0625@naver.com</t>
+  </si>
+  <si>
+    <t>차유결</t>
+  </si>
+  <si>
+    <t>06/25</t>
+  </si>
+  <si>
+    <t>kimcciman1@gmail.com</t>
+  </si>
+  <si>
+    <t>김원빈</t>
+  </si>
+  <si>
+    <t>su12ki24@gmail.com</t>
+  </si>
+  <si>
+    <t>박지숙</t>
+  </si>
+  <si>
+    <t>5542o@naver.com</t>
+  </si>
+  <si>
+    <t>권오준</t>
+  </si>
+  <si>
+    <t>byeol1710@naver.com</t>
+  </si>
+  <si>
+    <t>김별</t>
+  </si>
+  <si>
+    <t>10/15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05/29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qkralgus121@gmail.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
+  </si>
+  <si>
+    <t>minjae0812@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 빅데이터전공</t>
+  </si>
+  <si>
+    <t>주민재</t>
+  </si>
+  <si>
+    <t>xhaexeon@naver.com</t>
+  </si>
+  <si>
+    <t>sally4417776@naver.com</t>
+  </si>
+  <si>
+    <t>안세연</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>05/28</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>20233817@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>dms95123@naver.com</t>
+  </si>
+  <si>
+    <t>김은별</t>
+  </si>
+  <si>
+    <t>01/06</t>
+  </si>
+  <si>
+    <t>spb012@naver.com</t>
+  </si>
+  <si>
+    <t>모수빈</t>
+  </si>
+  <si>
+    <t>yeon-jin22@naver.com</t>
+  </si>
+  <si>
+    <t>최연진</t>
+  </si>
+  <si>
+    <t>rhdid98@naver.com</t>
+  </si>
+  <si>
+    <t>김소정</t>
+  </si>
+  <si>
+    <t>11/26</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>homework0810@naver.com</t>
+  </si>
+  <si>
+    <t>지승현</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터 학과</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>milovany03@gmail.com</t>
+  </si>
+  <si>
+    <t>박진옥</t>
+  </si>
+  <si>
+    <t>minjunkim0205@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>소프트웨어융합</t>
+  </si>
+  <si>
+    <t>김민준</t>
+  </si>
+  <si>
+    <t>rlaeogus0704@naver.com</t>
+  </si>
+  <si>
+    <t>07/04</t>
+  </si>
+  <si>
+    <t>jeongsuyeon749@gmail.com</t>
+  </si>
+  <si>
+    <t>정수연</t>
+  </si>
+  <si>
+    <t>csk331400@gmail.com</t>
+  </si>
+  <si>
+    <t>장승규</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>yoonsm4538@gmail.com</t>
+  </si>
+  <si>
+    <t>윤상민</t>
+  </si>
+  <si>
+    <t>im3790@naver.com</t>
+  </si>
+  <si>
+    <t>반도체학과</t>
+  </si>
+  <si>
+    <t>임진형</t>
+  </si>
+  <si>
+    <t>wnsaus_0522@naver.com</t>
+  </si>
+  <si>
+    <t>진희원</t>
+  </si>
+  <si>
+    <t>jay003@naver.com</t>
+  </si>
+  <si>
+    <t>rbdms0619@gmail.com</t>
+  </si>
+  <si>
+    <t>김규은</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>11/14</t>
+  </si>
+  <si>
+    <t>godis2002@naver.com</t>
+  </si>
+  <si>
+    <t>김승겸</t>
+  </si>
+  <si>
+    <t>04/16</t>
+  </si>
+  <si>
+    <t>01/15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yukima0110@naver.com</t>
+  </si>
+  <si>
+    <t>유설진</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">박심미 </t>
+  </si>
+  <si>
+    <t>tjr5457@naver.com</t>
+  </si>
+  <si>
+    <t>정현석</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>12/23</t>
+  </si>
+  <si>
+    <t>bag234428@gmail.com</t>
+  </si>
+  <si>
+    <t>박제은</t>
+  </si>
+  <si>
+    <t>11/05</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>limsoowan@naver.com</t>
+  </si>
+  <si>
+    <t>임수완</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>jinhwanjeong8@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>dllight2001@gmail.com</t>
+  </si>
+  <si>
+    <t>김들빛</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>05/02</t>
+  </si>
+  <si>
+    <t>dndbql123@naver.com</t>
+  </si>
+  <si>
+    <t>전유비</t>
+  </si>
+  <si>
+    <t>hyoeunida@naver.com</t>
+  </si>
+  <si>
+    <t>장효은</t>
+  </si>
+  <si>
+    <t>yenahpark@naver.com</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>박예나</t>
+  </si>
+  <si>
+    <t>06/24</t>
   </si>
 </sst>
 </file>
@@ -3978,11 +4390,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N420"/>
+  <dimension ref="A1:N478"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D422" sqref="D422"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E485" sqref="E485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21213,6 +21625,2384 @@
         <v>50</v>
       </c>
     </row>
+    <row r="421" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="2">
+        <v>45257.967740208333</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D421" s="1">
+        <v>20205265</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L421" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M421" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="2">
+        <v>45257.977734918983</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D422" s="1">
+        <v>20232318</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K422" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L422" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N422" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="2">
+        <v>45258.416144780094</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D423" s="1">
+        <v>20181702</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L423" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M423" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="2">
+        <v>45258.428594293982</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D424" s="1">
+        <v>20203628</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L424" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M424" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="2">
+        <v>45258.451089328708</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D425" s="1">
+        <v>20236767</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K425" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L425" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N425" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="2">
+        <v>45258.461028831021</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D426" s="1">
+        <v>20232104</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K426" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L426" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N426" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="2">
+        <v>45258.471365555553</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D427" s="1">
+        <v>20202750</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K427" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L427" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M427" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="2">
+        <v>45258.519848402779</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D428" s="1">
+        <v>20226429</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K428" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L428" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N428" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="2">
+        <v>45258.527831203704</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D429" s="1">
+        <v>20231540</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K429" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L429" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N429" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="2">
+        <v>45258.588460462968</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D430" s="1">
+        <v>20236715</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M430" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="2">
+        <v>45258.668429444442</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D431" s="1">
+        <v>20232821</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L431" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M431" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="2">
+        <v>45258.669742314814</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D432" s="1">
+        <v>20226703</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L432" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M432" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="2">
+        <v>45258.692059618057</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D433" s="1">
+        <v>20226218</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L433" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N433" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="2">
+        <v>45258.796839618051</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D434" s="1">
+        <v>20236236</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L434" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N434" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="2">
+        <v>45258.893104166666</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D435" s="1">
+        <v>20215249</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K435" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L435" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M435" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="2">
+        <v>45258.920811747681</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D436" s="1">
+        <v>20212210</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K436" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L436" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M436" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="2">
+        <v>45258.922682280092</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D437" s="1">
+        <v>20236257</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K437" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L437" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M437" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="2">
+        <v>45258.93932229167</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D438" s="1">
+        <v>20233644</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K438" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L438" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N438" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="2">
+        <v>45258.954146435186</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D439" s="1">
+        <v>20236230</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K439" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L439" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M439" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="2">
+        <v>45258.962620451392</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D440" s="1">
+        <v>20233817</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K440" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L440" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N440" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="2">
+        <v>45258.966542303242</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D441" s="1">
+        <v>20232317</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L441" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N441" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="2">
+        <v>45259.028935312497</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D442" s="1">
+        <v>20232530</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K442" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N442" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="2">
+        <v>45259.444291828702</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D443" s="1">
+        <v>20233256</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K443" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L443" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N443" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="2">
+        <v>45259.45363048611</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D444" s="1">
+        <v>20192604</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L444" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M444" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="2">
+        <v>45259.491420856481</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D445" s="1">
+        <v>20232817</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K445" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L445" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N445" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="2">
+        <v>45259.496611712966</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D446" s="1">
+        <v>20202992</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K446" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L446" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M446" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="2">
+        <v>45259.552443263892</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D447" s="1">
+        <v>20223259</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K447" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L447" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M447" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="2">
+        <v>45259.588663912036</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D448" s="1">
+        <v>20232586</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K448" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L448" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M448" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="2">
+        <v>45259.588977430554</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D449" s="1">
+        <v>20185300</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K449" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L449" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M449" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="2">
+        <v>45259.604900648148</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D450" s="1">
+        <v>20222968</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K450" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L450" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N450" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="2">
+        <v>45259.609998576387</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D451" s="1">
+        <v>20202223</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K451" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L451" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N451" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="2">
+        <v>45259.653277893522</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D452" s="1">
+        <v>20235128</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K452" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L452" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N452" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="2">
+        <v>45259.703712974537</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D453" s="1">
+        <v>20193604</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K453" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L453" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M453" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="2">
+        <v>45259.716442870369</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D454" s="1">
+        <v>20236290</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J454" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K454" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L454" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N454" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="2">
+        <v>45259.725338344906</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D455" s="1">
+        <v>20203536</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J455" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K455" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L455" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M455" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="2">
+        <v>45259.795934189809</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D456" s="1">
+        <v>20233638</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J456" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K456" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L456" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N456" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="2">
+        <v>45259.823934097221</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D457" s="1">
+        <v>20221626</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K457" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N457" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="2">
+        <v>45259.861191053242</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D458" s="1">
+        <v>20203346</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J458" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K458" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L458" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M458" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="2">
+        <v>45259.897130057871</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D459" s="1">
+        <v>20231093</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J459" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K459" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L459" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N459" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="2">
+        <v>45259.916241053244</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D460" s="1">
+        <v>20232310</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J460" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K460" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L460" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N460" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="2">
+        <v>45259.925845995371</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D461" s="1">
+        <v>20213803</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K461" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="2">
+        <v>45259.940575740737</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D462" s="1">
+        <v>20201627</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K462" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M462" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="2">
+        <v>45259.953185682869</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D463" s="1">
+        <v>20211706</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K463" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L463" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M463" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="2">
+        <v>45259.990175879633</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D464" s="1">
+        <v>20192120</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K464" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L464" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N464" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="2">
+        <v>45260.015796307867</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D465" s="1">
+        <v>20236235</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K465" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M465" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="2">
+        <v>45260.067944340277</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D466" s="1">
+        <v>20217069</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K466" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N466" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="2">
+        <v>45260.076230347222</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D467" s="1">
+        <v>20193344</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K467" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N467" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="2">
+        <v>45260.360279363427</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D468" s="1">
+        <v>20235215</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M468" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="2">
+        <v>45260.572097326389</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D469" s="1">
+        <v>20236241</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K469" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M469" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="2">
+        <v>45260.586319583337</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D470" s="1">
+        <v>20194132</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="2">
+        <v>45260.614876215273</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D471" s="1">
+        <v>20224138</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N471" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="2">
+        <v>45260.65141608796</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D472" s="1">
+        <v>20217122</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K472" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L472" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N472" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="2">
+        <v>45260.654447442124</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D473" s="1">
+        <v>20236776</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F473" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K473" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N473" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="2">
+        <v>45260.665841087961</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D474" s="1">
+        <v>20205129</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F474" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K474" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N474" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="2">
+        <v>45260.781908321762</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D475" s="1">
+        <v>20163118</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K475" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L475" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M475" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="2">
+        <v>45260.800715856487</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D476" s="1">
+        <v>20232574</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K476" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L476" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M476" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="2">
+        <v>45260.850360254626</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D477" s="1">
+        <v>20236288</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K477" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N477" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="2">
+        <v>45260.892964837964</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D478" s="1">
+        <v>20221035</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K478" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M478" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231120.xlsx
+++ b/R/data/quiz231120.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535B5346-05F2-A540-B4D2-41C63C132497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B104B28C-3BBA-FE4D-8060-D486F7CC3360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48440" yWindow="880" windowWidth="39400" windowHeight="21560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5261" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="1391">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4114,6 +4114,123 @@
   </si>
   <si>
     <t>06/24</t>
+  </si>
+  <si>
+    <t>ahnstar726@gmail.com</t>
+  </si>
+  <si>
+    <t>안태준</t>
+  </si>
+  <si>
+    <t>07/26</t>
+  </si>
+  <si>
+    <t>rhdskrud123@naver.com</t>
+  </si>
+  <si>
+    <t>공나경</t>
+  </si>
+  <si>
+    <t>kgh15820@naver.com</t>
+  </si>
+  <si>
+    <t>김가현</t>
+  </si>
+  <si>
+    <t>hankyo777@naver.com</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
+    <t>sharkyminzz@gmail.com</t>
+  </si>
+  <si>
+    <t>서민형</t>
+  </si>
+  <si>
+    <t>ybumma4@gmail.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>seongheun2004@gmail.com</t>
+  </si>
+  <si>
+    <t>지성흔</t>
+  </si>
+  <si>
+    <t>05/30</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>xpjungwoo0518@kakao.com</t>
+  </si>
+  <si>
+    <t>이정우</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>11/07</t>
+  </si>
+  <si>
+    <t>bluessin0312@naver.com</t>
+  </si>
+  <si>
+    <t>신혜빈</t>
+  </si>
+  <si>
+    <t>qndks2129@naver.com</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>권유진</t>
+  </si>
+  <si>
+    <t>05/13</t>
+  </si>
+  <si>
+    <t>m.kwak2018@gmail.com</t>
+  </si>
+  <si>
+    <t>곽민수</t>
+  </si>
+  <si>
+    <t>03/05</t>
+  </si>
+  <si>
+    <t>sysy050300@naver.com</t>
+  </si>
+  <si>
+    <t>고서연</t>
   </si>
 </sst>
 </file>
@@ -4390,11 +4507,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N478"/>
+  <dimension ref="A1:N495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E485" sqref="E485"/>
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C499" sqref="C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24003,6 +24120,703 @@
         <v>50</v>
       </c>
     </row>
+    <row r="479" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="2">
+        <v>45260.923906539349</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D479" s="1">
+        <v>20233938</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N479" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="2">
+        <v>45260.96327206018</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D480" s="1">
+        <v>20231002</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K480" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L480" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N480" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="2">
+        <v>45260.984706111107</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D481" s="1">
+        <v>20201503</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="2">
+        <v>45261.018020254633</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D482" s="1">
+        <v>20233244</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K482" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L482" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N482" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="2">
+        <v>45261.02668628472</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D483" s="1">
+        <v>20236136</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K483" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L483" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N483" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="2">
+        <v>45261.418311527777</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D484" s="1">
+        <v>20226152</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K484" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L484" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M484" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="2">
+        <v>45261.420305358799</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D485" s="1">
+        <v>20234151</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K485" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L485" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M485" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="2">
+        <v>45261.584198217592</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D486" s="1">
+        <v>20232114</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K486" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L486" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M486" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="2">
+        <v>45261.585045474538</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D487" s="1">
+        <v>20231626</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N487" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="2">
+        <v>45261.585194548607</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D488" s="1">
+        <v>20222950</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K488" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L488" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M488" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="2">
+        <v>45261.595763333331</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D489" s="1">
+        <v>20233906</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K489" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L489" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N489" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="2">
+        <v>45261.595898078704</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D490" s="1">
+        <v>20212233</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K490" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L490" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M490" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="2">
+        <v>45261.616613854167</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D491" s="1">
+        <v>20221054</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K491" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L491" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N491" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="2">
+        <v>45261.623716400463</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D492" s="1">
+        <v>20232617</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K492" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L492" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M492" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="2">
+        <v>45261.642857534724</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D493" s="1">
+        <v>20233303</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K493" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L493" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N493" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="2">
+        <v>45261.656101574074</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D494" s="1">
+        <v>20182202</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K494" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L494" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N494" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="2">
+        <v>45261.663027187504</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D495" s="1">
+        <v>20232101</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K495" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L495" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M495" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231120.xlsx
+++ b/R/data/quiz231120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Library/CloudStorage/GoogleDrive-kwlee58@gmail.com/내 드라이브/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B104B28C-3BBA-FE4D-8060-D486F7CC3360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA2445D-24A2-0540-9763-F33893BFB742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48440" yWindow="880" windowWidth="39400" windowHeight="21560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5976" uniqueCount="1500">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4231,6 +4231,335 @@
   </si>
   <si>
     <t>고서연</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.com</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>10/28</t>
+  </si>
+  <si>
+    <t>zzolle424@naver.com</t>
+  </si>
+  <si>
+    <t>전지호</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>05/11</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>vertigojohn95@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
+  </si>
+  <si>
+    <t>08/16</t>
+  </si>
+  <si>
+    <t>jimin040719@naver.com</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>janghangyeol0304@gmail.com</t>
+  </si>
+  <si>
+    <t>장한결</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>bsb012345@naver.com</t>
+  </si>
+  <si>
+    <t>박준혁</t>
+  </si>
+  <si>
+    <t>hjkiubb@naver.com</t>
+  </si>
+  <si>
+    <t>박재은</t>
+  </si>
+  <si>
+    <t>youngsoo051400@naver.com</t>
+  </si>
+  <si>
+    <t>최영수</t>
+  </si>
+  <si>
+    <t>tjdals041122@gmail.com</t>
+  </si>
+  <si>
+    <t>전성민</t>
+  </si>
+  <si>
+    <t>11/22</t>
+  </si>
+  <si>
+    <t>jinyoung05503@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>kwakyeeun624@naver.com</t>
+  </si>
+  <si>
+    <t>곽예은</t>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>09/05</t>
+  </si>
+  <si>
+    <t>dbwjdrms21@naver.com</t>
+  </si>
+  <si>
+    <t>유정근</t>
+  </si>
+  <si>
+    <t>05/21</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>jinhyuncinxxs@gmail.com</t>
+  </si>
+  <si>
+    <t>손진현</t>
+  </si>
+  <si>
+    <t>junwon5424@naver.com</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>mkdaniel2020@gmail.com</t>
+  </si>
+  <si>
+    <t>권다넬</t>
+  </si>
+  <si>
+    <t>giovanni02190219@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합학부</t>
+  </si>
+  <si>
+    <t>신재현</t>
+  </si>
+  <si>
+    <t>dlwjdgh0808@naver.com</t>
+  </si>
+  <si>
+    <t>이정호</t>
+  </si>
+  <si>
+    <t>zdfxd3611@naver.com</t>
+  </si>
+  <si>
+    <t>이현태</t>
+  </si>
+  <si>
+    <t>20235130@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김상윤</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>qkqch128@naver.com</t>
+  </si>
+  <si>
+    <t>반초원</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>gahyun030405@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>윤가현</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>ksh20637727@gmail.com</t>
+  </si>
+  <si>
+    <t>김성현</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>jinwoo3817@naver.com</t>
+  </si>
+  <si>
+    <t>원진우</t>
+  </si>
+  <si>
+    <t>rlawlsvy234@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체-디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>김진표</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>rjsdnjs0711@gmail.com</t>
+  </si>
+  <si>
+    <t>서건원</t>
+  </si>
+  <si>
+    <t>xyxuxn9256@gmail.com</t>
+  </si>
+  <si>
+    <t>인초윤</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>jeongyeon256@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>shni92@naver.com</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>sherisim@naver.com</t>
+  </si>
+  <si>
+    <t>심시원</t>
+  </si>
+  <si>
+    <t>04/08</t>
+  </si>
+  <si>
+    <t>homelearn04@naver.com</t>
+  </si>
+  <si>
+    <t>박종욱</t>
+  </si>
+  <si>
+    <t>10/23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4507,11 +4836,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N495"/>
+  <dimension ref="A1:N543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C499" sqref="C499"/>
+      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24817,6 +25146,1974 @@
         <v>62</v>
       </c>
     </row>
+    <row r="496" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="2">
+        <v>45261.762088159725</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D496" s="1">
+        <v>20231710</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K496" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L496" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N496" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="2">
+        <v>45261.762702881941</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D497" s="1">
+        <v>20236771</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K497" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L497" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M497" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="2">
+        <v>45261.763674131944</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D498" s="1">
+        <v>20233030</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K498" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L498" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M498" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="2">
+        <v>45261.770642962962</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D499" s="1">
+        <v>20232832</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L499" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N499" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="2">
+        <v>45261.779665624999</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D500" s="1">
+        <v>20236628</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J500" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K500" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L500" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M500" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="2">
+        <v>45261.79270096065</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D501" s="1">
+        <v>20233322</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J501" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K501" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L501" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M501" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="2">
+        <v>45261.797737546294</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D502" s="1">
+        <v>20182517</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K502" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L502" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="2">
+        <v>45261.847209131942</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D503" s="1">
+        <v>20232616</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J503" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K503" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L503" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N503" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="2">
+        <v>45261.862180370372</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D504" s="1">
+        <v>20193531</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J504" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K504" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L504" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N504" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="2">
+        <v>45261.928210798607</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D505" s="1">
+        <v>20222838</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J505" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K505" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L505" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M505" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="2">
+        <v>45261.943089537039</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D506" s="1">
+        <v>20233353</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J506" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K506" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L506" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M506" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="2">
+        <v>45261.948310659718</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D507" s="1">
+        <v>20183515</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J507" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K507" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L507" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M507" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="508" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="2">
+        <v>45261.999320856485</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D508" s="1">
+        <v>20232538</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J508" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K508" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L508" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N508" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="2">
+        <v>45262.061454710652</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D509" s="1">
+        <v>20233052</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J509" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K509" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L509" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N509" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="2">
+        <v>45262.067654988423</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D510" s="1">
+        <v>20232357</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J510" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K510" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L510" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N510" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="2">
+        <v>45262.384413761574</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D511" s="1">
+        <v>20233534</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H511" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J511" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K511" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L511" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M511" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="512" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="2">
+        <v>45262.517961365738</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D512" s="1">
+        <v>20236204</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L512" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M512" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="2">
+        <v>45262.537408321761</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D513" s="1">
+        <v>20215173</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K513" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L513" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N513" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="2">
+        <v>45262.581752349535</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D514" s="1">
+        <v>20183829</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J514" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K514" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L514" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N514" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="2">
+        <v>45262.595763090278</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D515" s="1">
+        <v>20236623</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J515" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L515" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M515" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="2">
+        <v>45262.616796030095</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D516" s="1">
+        <v>20231219</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J516" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K516" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L516" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N516" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="2">
+        <v>45262.630492777782</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D517" s="1">
+        <v>20226613</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L517" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N517" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="2">
+        <v>45262.632313078706</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D518" s="1">
+        <v>20226403</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J518" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L518" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N518" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="2">
+        <v>45262.635909861114</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D519" s="1">
+        <v>20235200</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J519" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L519" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N519" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="2">
+        <v>45262.639686932875</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D520" s="1">
+        <v>20201083</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J520" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K520" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L520" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M520" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="2">
+        <v>45262.641206122687</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D521" s="1">
+        <v>20205239</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J521" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K521" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L521" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N521" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="2">
+        <v>45262.643391481484</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D522" s="1">
+        <v>20235130</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J522" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K522" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L522" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N522" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="2">
+        <v>45262.655610462964</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D523" s="1">
+        <v>20232328</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J523" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L523" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N523" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="2">
+        <v>45262.669466018517</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D524" s="1">
+        <v>20233934</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L524" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N524" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="2">
+        <v>45262.671561724535</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D525" s="1">
+        <v>20203411</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J525" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L525" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N525" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="2">
+        <v>45262.675928900462</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D526" s="1">
+        <v>20222561</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J526" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L526" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M526" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="2">
+        <v>45262.686923715279</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D527" s="1">
+        <v>20236419</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J527" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L527" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N527" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="2">
+        <v>45262.692789305554</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D528" s="1">
+        <v>20232302</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J528" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L528" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M528" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="2">
+        <v>45262.697584942129</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D529" s="1">
+        <v>20235133</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J529" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L529" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N529" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="2">
+        <v>45262.703919965279</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D530" s="1">
+        <v>20236778</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K530" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L530" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M530" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="2">
+        <v>45262.730906539349</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D531" s="1">
+        <v>20222552</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J531" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L531" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N531" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="2">
+        <v>45262.731969560184</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D532" s="1">
+        <v>20193316</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J532" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K532" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L532" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N532" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="2">
+        <v>45262.760766562496</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D533" s="1">
+        <v>20226647</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J533" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L533" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M533" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="2">
+        <v>45262.774285150459</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D534" s="1">
+        <v>20223324</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J534" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L534" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M534" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="2">
+        <v>45262.782093680551</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D535" s="1">
+        <v>20212561</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J535" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K535" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L535" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N535" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="2">
+        <v>45262.783000520838</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D536" s="1">
+        <v>20213827</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K536" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L536" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M536" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="2">
+        <v>45262.786431550921</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D537" s="1">
+        <v>20232232</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K537" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L537" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="2">
+        <v>45262.787921238429</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D538" s="1">
+        <v>20191508</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J538" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L538" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M538" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="2">
+        <v>45262.823751122683</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D539" s="1">
+        <v>20236606</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L539" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N539" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="2">
+        <v>45262.824159930555</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D540" s="1">
+        <v>20236764</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K540" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L540" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N540" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="2">
+        <v>45262.835945925923</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D541" s="1">
+        <v>20222409</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J541" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L541" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M541" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="2">
+        <v>45262.849031782403</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D542" s="1">
+        <v>20236741</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J542" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K542" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L542" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N542" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="2">
+        <v>45262.870578113427</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D543" s="1">
+        <v>20235170</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L543" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N543" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231120.xlsx
+++ b/R/data/quiz231120.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Library/CloudStorage/GoogleDrive-kwlee58@gmail.com/내 드라이브/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA2445D-24A2-0540-9763-F33893BFB742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB09C656-D1A6-634A-8B00-0439E8BD7478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5976" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6163" uniqueCount="1537">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4559,6 +4559,119 @@
   </si>
   <si>
     <t>3/10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>richhjin@naver.com</t>
+  </si>
+  <si>
+    <t>09/27</t>
+  </si>
+  <si>
+    <t>audri01@naver.com</t>
+  </si>
+  <si>
+    <t>이승아</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>jsubin0424@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">정수빈 </t>
+  </si>
+  <si>
+    <t>jayean0715@naver.com</t>
+  </si>
+  <si>
+    <t>김자연</t>
+  </si>
+  <si>
+    <t>nayoung0489@naver.com</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진혜린</t>
+  </si>
+  <si>
+    <t>thsdlstn99@naver.com</t>
+  </si>
+  <si>
+    <t>이인수</t>
+  </si>
+  <si>
+    <t>11/17</t>
+  </si>
+  <si>
+    <t>1004soeun@naver.com</t>
+  </si>
+  <si>
+    <t>김소은</t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>tnqls06082@naver.com</t>
+  </si>
+  <si>
+    <t>조수빈</t>
+  </si>
+  <si>
+    <t>dongwoo2869@naver.com</t>
+  </si>
+  <si>
+    <t>남동우</t>
+  </si>
+  <si>
+    <t>hi8964@naver.com</t>
+  </si>
+  <si>
+    <t>윤태규</t>
+  </si>
+  <si>
+    <t>limjaewoo0611@naver.com</t>
+  </si>
+  <si>
+    <t>a01093819049@gmail.com</t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>04/22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06/11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4836,11 +4949,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N543"/>
+  <dimension ref="A1:N560"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F563" sqref="F563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27114,6 +27227,703 @@
         <v>28</v>
       </c>
     </row>
+    <row r="544" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="2">
+        <v>45262.881021307869</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D544" s="1">
+        <v>20233732</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L544" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N544" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="2">
+        <v>45262.8828784375</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D545" s="1">
+        <v>20203639</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K545" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L545" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N545" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="2">
+        <v>45262.940437453704</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D546" s="1">
+        <v>20221026</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L546" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N546" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="2">
+        <v>45262.965558020835</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D547" s="1">
+        <v>20222355</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L547" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N547" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="2">
+        <v>45262.990330138884</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D548" s="1">
+        <v>20233918</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F548" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J548" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K548" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L548" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M548" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="2">
+        <v>45262.999107430558</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D549" s="1">
+        <v>20232917</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N549" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="2">
+        <v>45263.008331886573</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D550" s="1">
+        <v>20191530</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J550" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K550" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="2">
+        <v>45263.019294351849</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D551" s="1">
+        <v>20236781</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J551" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K551" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L551" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N551" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="2">
+        <v>45263.020862962963</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D552" s="1">
+        <v>20182749</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K552" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L552" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N552" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="2">
+        <v>45263.023146747684</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D553" s="1">
+        <v>20232514</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J553" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K553" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L553" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N553" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="2">
+        <v>45263.0241465625</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D554" s="1">
+        <v>20236785</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J554" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L554" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N554" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="2">
+        <v>45263.043389606479</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D555" s="1">
+        <v>20221728</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K555" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L555" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N555" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="2">
+        <v>45263.044607951393</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D556" s="1">
+        <v>20202216</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L556" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M556" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="2">
+        <v>45263.047865578701</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D557" s="1">
+        <v>20203420</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K557" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L557" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M557" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="2">
+        <v>45263.052617962967</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D558" s="1">
+        <v>20213955</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K558" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L558" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M558" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="2">
+        <v>45263.058910729167</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D559" s="1">
+        <v>20212608</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L559" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N559" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="2">
+        <v>45263.238855532407</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D560" s="1">
+        <v>20216258</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L560" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
